--- a/datasheets/set/recursions_s_raw_2.xlsx
+++ b/datasheets/set/recursions_s_raw_2.xlsx
@@ -484,13 +484,13 @@
         <v>8192</v>
       </c>
       <c r="E2" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="F2" t="n">
-        <v>5933</v>
+        <v>8274</v>
       </c>
       <c r="G2" t="n">
-        <v>1898</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         <v>8192</v>
       </c>
       <c r="E3" t="n">
-        <v>6558</v>
+        <v>8192</v>
       </c>
       <c r="F3" t="n">
-        <v>6382</v>
+        <v>6374</v>
       </c>
       <c r="G3" t="n">
-        <v>1493</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
-        <v>8192</v>
+        <v>7963</v>
       </c>
       <c r="E4" t="n">
         <v>8192</v>
       </c>
       <c r="F4" t="n">
-        <v>6106</v>
+        <v>6224</v>
       </c>
       <c r="G4" t="n">
-        <v>3280</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E5" t="n">
-        <v>7722</v>
+        <v>8192</v>
       </c>
       <c r="F5" t="n">
-        <v>6030</v>
+        <v>6245</v>
       </c>
       <c r="G5" t="n">
-        <v>1855</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E6" t="n">
-        <v>7132</v>
+        <v>8192</v>
       </c>
       <c r="F6" t="n">
-        <v>8285</v>
+        <v>3837</v>
       </c>
       <c r="G6" t="n">
-        <v>2836</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="7">
@@ -596,16 +596,16 @@
         <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>7654</v>
+        <v>8196</v>
       </c>
       <c r="E7" t="n">
-        <v>6145</v>
+        <v>8200</v>
       </c>
       <c r="F7" t="n">
-        <v>6123</v>
+        <v>6264</v>
       </c>
       <c r="G7" t="n">
-        <v>2729</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="8">
@@ -619,16 +619,16 @@
         <v>8192</v>
       </c>
       <c r="D8" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E8" t="n">
         <v>8192</v>
       </c>
       <c r="F8" t="n">
-        <v>6347</v>
+        <v>8220</v>
       </c>
       <c r="G8" t="n">
-        <v>2836</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="9">
@@ -642,16 +642,16 @@
         <v>8192</v>
       </c>
       <c r="D9" t="n">
-        <v>8192</v>
+        <v>7256</v>
       </c>
       <c r="E9" t="n">
-        <v>8207</v>
+        <v>7801</v>
       </c>
       <c r="F9" t="n">
-        <v>6228</v>
+        <v>6016</v>
       </c>
       <c r="G9" t="n">
-        <v>1533</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="10">
@@ -665,16 +665,16 @@
         <v>8192</v>
       </c>
       <c r="D10" t="n">
-        <v>8192</v>
+        <v>7533</v>
       </c>
       <c r="E10" t="n">
         <v>8192</v>
       </c>
       <c r="F10" t="n">
-        <v>6234</v>
+        <v>4092</v>
       </c>
       <c r="G10" t="n">
-        <v>1718</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="11">
@@ -688,16 +688,16 @@
         <v>8192</v>
       </c>
       <c r="D11" t="n">
-        <v>8197</v>
+        <v>8196</v>
       </c>
       <c r="E11" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="F11" t="n">
-        <v>4065</v>
+        <v>6102</v>
       </c>
       <c r="G11" t="n">
-        <v>1908</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="12">
@@ -711,16 +711,16 @@
         <v>8192</v>
       </c>
       <c r="D12" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E12" t="n">
-        <v>8201</v>
+        <v>8198</v>
       </c>
       <c r="F12" t="n">
-        <v>4092</v>
+        <v>6007</v>
       </c>
       <c r="G12" t="n">
-        <v>2713</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>8192</v>
       </c>
       <c r="E13" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="F13" t="n">
-        <v>5631</v>
+        <v>6536</v>
       </c>
       <c r="G13" t="n">
-        <v>1907</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>6996</v>
+        <v>8192</v>
       </c>
       <c r="E14" t="n">
         <v>8192</v>
       </c>
       <c r="F14" t="n">
-        <v>6080</v>
+        <v>6152</v>
       </c>
       <c r="G14" t="n">
-        <v>964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         <v>8192</v>
       </c>
       <c r="E15" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="F15" t="n">
-        <v>6184</v>
+        <v>6198</v>
       </c>
       <c r="G15" t="n">
-        <v>1411</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="16">
@@ -803,16 +803,16 @@
         <v>8192</v>
       </c>
       <c r="D16" t="n">
-        <v>7696</v>
+        <v>7421</v>
       </c>
       <c r="E16" t="n">
-        <v>6556</v>
+        <v>8201</v>
       </c>
       <c r="F16" t="n">
-        <v>6382</v>
+        <v>5887</v>
       </c>
       <c r="G16" t="n">
-        <v>3244</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>7548</v>
+        <v>8200</v>
       </c>
       <c r="E17" t="n">
-        <v>8192</v>
+        <v>6028</v>
       </c>
       <c r="F17" t="n">
-        <v>6202</v>
+        <v>4015</v>
       </c>
       <c r="G17" t="n">
-        <v>1787</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="18">
@@ -852,13 +852,13 @@
         <v>8192</v>
       </c>
       <c r="E18" t="n">
-        <v>8022</v>
+        <v>8192</v>
       </c>
       <c r="F18" t="n">
-        <v>6112</v>
+        <v>4027</v>
       </c>
       <c r="G18" t="n">
-        <v>2816</v>
+        <v>996</v>
       </c>
     </row>
     <row r="19">
@@ -875,13 +875,13 @@
         <v>8192</v>
       </c>
       <c r="E19" t="n">
-        <v>8192</v>
+        <v>6772</v>
       </c>
       <c r="F19" t="n">
-        <v>6329</v>
+        <v>8508</v>
       </c>
       <c r="G19" t="n">
-        <v>1952</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="20">
@@ -895,16 +895,16 @@
         <v>8192</v>
       </c>
       <c r="D20" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E20" t="n">
-        <v>6523</v>
+        <v>8192</v>
       </c>
       <c r="F20" t="n">
-        <v>8245</v>
+        <v>6398</v>
       </c>
       <c r="G20" t="n">
-        <v>2972</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +918,16 @@
         <v>8192</v>
       </c>
       <c r="D21" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E21" t="n">
-        <v>8229</v>
+        <v>6859</v>
       </c>
       <c r="F21" t="n">
-        <v>6192</v>
+        <v>8220</v>
       </c>
       <c r="G21" t="n">
-        <v>1500</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="22">
@@ -944,13 +944,13 @@
         <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>8198</v>
+        <v>7762</v>
       </c>
       <c r="F22" t="n">
-        <v>5982</v>
+        <v>6401</v>
       </c>
       <c r="G22" t="n">
-        <v>514</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="23">
@@ -964,16 +964,16 @@
         <v>8192</v>
       </c>
       <c r="D23" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="E23" t="n">
-        <v>8205</v>
+        <v>8206</v>
       </c>
       <c r="F23" t="n">
-        <v>6330</v>
+        <v>6112</v>
       </c>
       <c r="G23" t="n">
-        <v>2530</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>7109</v>
+        <v>7460</v>
       </c>
       <c r="E24" t="n">
-        <v>8192</v>
+        <v>7251</v>
       </c>
       <c r="F24" t="n">
-        <v>4020</v>
+        <v>6203</v>
       </c>
       <c r="G24" t="n">
-        <v>2524</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="25">
@@ -1013,13 +1013,13 @@
         <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F25" t="n">
-        <v>4090</v>
+        <v>6303</v>
       </c>
       <c r="G25" t="n">
-        <v>1022</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="26">
@@ -1033,16 +1033,16 @@
         <v>8192</v>
       </c>
       <c r="D26" t="n">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="E26" t="n">
         <v>8192</v>
       </c>
       <c r="F26" t="n">
-        <v>8535</v>
+        <v>6119</v>
       </c>
       <c r="G26" t="n">
-        <v>1770</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="27">
@@ -1056,16 +1056,16 @@
         <v>8192</v>
       </c>
       <c r="D27" t="n">
-        <v>7878</v>
+        <v>8203</v>
       </c>
       <c r="E27" t="n">
         <v>8192</v>
       </c>
       <c r="F27" t="n">
-        <v>6019</v>
+        <v>6015</v>
       </c>
       <c r="G27" t="n">
-        <v>1011</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>8192</v>
       </c>
       <c r="D28" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="E28" t="n">
         <v>8192</v>
       </c>
       <c r="F28" t="n">
-        <v>6041</v>
+        <v>6136</v>
       </c>
       <c r="G28" t="n">
-        <v>1408</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>8192</v>
       </c>
       <c r="D29" t="n">
-        <v>8161</v>
+        <v>8192</v>
       </c>
       <c r="E29" t="n">
-        <v>8065</v>
+        <v>7085</v>
       </c>
       <c r="F29" t="n">
-        <v>5879</v>
+        <v>6210</v>
       </c>
       <c r="G29" t="n">
-        <v>1963</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>8195</v>
+        <v>8202</v>
       </c>
       <c r="E30" t="n">
-        <v>8192</v>
+        <v>8066</v>
       </c>
       <c r="F30" t="n">
-        <v>3947</v>
+        <v>6192</v>
       </c>
       <c r="G30" t="n">
-        <v>1507</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="31">
@@ -1148,16 +1148,16 @@
         <v>8192</v>
       </c>
       <c r="D31" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E31" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F31" t="n">
-        <v>8061</v>
+        <v>6443</v>
       </c>
       <c r="G31" t="n">
-        <v>2888</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E32" t="n">
-        <v>7856</v>
+        <v>8192</v>
       </c>
       <c r="F32" t="n">
-        <v>8299</v>
+        <v>6064</v>
       </c>
       <c r="G32" t="n">
-        <v>516</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8196</v>
+        <v>8048</v>
       </c>
       <c r="E33" t="n">
-        <v>7308</v>
+        <v>7680</v>
       </c>
       <c r="F33" t="n">
-        <v>3570</v>
+        <v>8272</v>
       </c>
       <c r="G33" t="n">
-        <v>1781</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="34">
@@ -1217,16 +1217,16 @@
         <v>8192</v>
       </c>
       <c r="D34" t="n">
-        <v>7492</v>
+        <v>8192</v>
       </c>
       <c r="E34" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="F34" t="n">
-        <v>4074</v>
+        <v>8277</v>
       </c>
       <c r="G34" t="n">
-        <v>1909</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E35" t="n">
-        <v>8192</v>
+        <v>6099</v>
       </c>
       <c r="F35" t="n">
-        <v>6139</v>
+        <v>4079</v>
       </c>
       <c r="G35" t="n">
-        <v>1656</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>8192</v>
       </c>
       <c r="D36" t="n">
-        <v>7667</v>
+        <v>8201</v>
       </c>
       <c r="E36" t="n">
-        <v>8192</v>
+        <v>7951</v>
       </c>
       <c r="F36" t="n">
-        <v>6554</v>
+        <v>5880</v>
       </c>
       <c r="G36" t="n">
-        <v>1943</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37">
@@ -1286,16 +1286,16 @@
         <v>8192</v>
       </c>
       <c r="D37" t="n">
-        <v>6966</v>
+        <v>8192</v>
       </c>
       <c r="E37" t="n">
-        <v>7423</v>
+        <v>8192</v>
       </c>
       <c r="F37" t="n">
-        <v>6193</v>
+        <v>6002</v>
       </c>
       <c r="G37" t="n">
-        <v>993</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="38">
@@ -1309,16 +1309,16 @@
         <v>8192</v>
       </c>
       <c r="D38" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="E38" t="n">
-        <v>8192</v>
+        <v>6558</v>
       </c>
       <c r="F38" t="n">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="G38" t="n">
-        <v>2881</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="39">
@@ -1332,16 +1332,16 @@
         <v>8192</v>
       </c>
       <c r="D39" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E39" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="F39" t="n">
-        <v>7861</v>
+        <v>6143</v>
       </c>
       <c r="G39" t="n">
-        <v>1521</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="40">
@@ -1355,16 +1355,16 @@
         <v>8192</v>
       </c>
       <c r="D40" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E40" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F40" t="n">
-        <v>6279</v>
+        <v>6069</v>
       </c>
       <c r="G40" t="n">
-        <v>1785</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="41">
@@ -1381,13 +1381,13 @@
         <v>8192</v>
       </c>
       <c r="E41" t="n">
-        <v>8217</v>
+        <v>7717</v>
       </c>
       <c r="F41" t="n">
-        <v>8431</v>
+        <v>6290</v>
       </c>
       <c r="G41" t="n">
-        <v>1783</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="42">
@@ -1404,13 +1404,13 @@
         <v>8192</v>
       </c>
       <c r="E42" t="n">
-        <v>8102</v>
+        <v>6471</v>
       </c>
       <c r="F42" t="n">
-        <v>5960</v>
+        <v>5975</v>
       </c>
       <c r="G42" t="n">
-        <v>2971</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>8192</v>
       </c>
       <c r="D43" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E43" t="n">
-        <v>6501</v>
+        <v>8192</v>
       </c>
       <c r="F43" t="n">
-        <v>6195</v>
+        <v>6247</v>
       </c>
       <c r="G43" t="n">
-        <v>2935</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="44">
@@ -1450,13 +1450,13 @@
         <v>8192</v>
       </c>
       <c r="E44" t="n">
-        <v>6222</v>
+        <v>8192</v>
       </c>
       <c r="F44" t="n">
-        <v>6259</v>
+        <v>3956</v>
       </c>
       <c r="G44" t="n">
-        <v>2347</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="45">
@@ -1476,10 +1476,10 @@
         <v>8192</v>
       </c>
       <c r="F45" t="n">
-        <v>6539</v>
+        <v>8433</v>
       </c>
       <c r="G45" t="n">
-        <v>1787</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46">
@@ -1493,16 +1493,16 @@
         <v>8192</v>
       </c>
       <c r="D46" t="n">
-        <v>8203</v>
+        <v>7742</v>
       </c>
       <c r="E46" t="n">
-        <v>6313</v>
+        <v>8198</v>
       </c>
       <c r="F46" t="n">
-        <v>6423</v>
+        <v>6095</v>
       </c>
       <c r="G46" t="n">
-        <v>772</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="47">
@@ -1516,16 +1516,16 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E47" t="n">
         <v>8192</v>
       </c>
       <c r="F47" t="n">
-        <v>6167</v>
+        <v>6144</v>
       </c>
       <c r="G47" t="n">
-        <v>2866</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="48">
@@ -1539,16 +1539,16 @@
         <v>8192</v>
       </c>
       <c r="D48" t="n">
-        <v>8192</v>
+        <v>6607</v>
       </c>
       <c r="E48" t="n">
-        <v>8213</v>
+        <v>8216</v>
       </c>
       <c r="F48" t="n">
-        <v>5952</v>
+        <v>6364</v>
       </c>
       <c r="G48" t="n">
-        <v>1012</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="49">
@@ -1562,16 +1562,16 @@
         <v>8192</v>
       </c>
       <c r="D49" t="n">
-        <v>8198</v>
+        <v>7671</v>
       </c>
       <c r="E49" t="n">
-        <v>8192</v>
+        <v>7116</v>
       </c>
       <c r="F49" t="n">
-        <v>6205</v>
+        <v>5890</v>
       </c>
       <c r="G49" t="n">
-        <v>1784</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="50">
@@ -1585,16 +1585,16 @@
         <v>8192</v>
       </c>
       <c r="D50" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E50" t="n">
-        <v>8192</v>
+        <v>7684</v>
       </c>
       <c r="F50" t="n">
-        <v>6359</v>
+        <v>6111</v>
       </c>
       <c r="G50" t="n">
-        <v>2941</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="51">
@@ -1608,16 +1608,16 @@
         <v>8192</v>
       </c>
       <c r="D51" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E51" t="n">
         <v>8192</v>
       </c>
       <c r="F51" t="n">
-        <v>5979</v>
+        <v>6008</v>
       </c>
       <c r="G51" t="n">
-        <v>1505</v>
+        <v>1849</v>
       </c>
     </row>
   </sheetData>
